--- a/data/aceattorney_data/scripts/Yuan/ace_attorney_cross_examinations.xlsx
+++ b/data/aceattorney_data/scripts/Yuan/ace_attorney_cross_examinations.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B48"/>
+  <dimension ref="A1:B81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -498,47 +498,47 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>1-4-2_Turnabout_Goodbyes.json</t>
+          <t>1-3-6_Turnabout_Samurai.json</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>1-4-4_Turnabout_Goodbyes.json</t>
+          <t>1-4-2_Turnabout_Goodbyes.json</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2-1-1_The_Lost_Turnabout.json</t>
+          <t>1-4-4_Turnabout_Goodbyes.json</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2-2-2_Reunion,_and_Turnabout.json</t>
+          <t>1-4-6_Turnabout_Goodbyes.json</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2-2-4_Reunion,_and_Turnabout.json</t>
+          <t>10-2-1_The_Captive_Turnabout.json</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -548,37 +548,37 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2-3-2_Turnabout_Big_Top.json</t>
+          <t>10-2-2_The_Captive_Turnabout.json</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2-3-4_Turnabout_Big_Top.json</t>
+          <t>10-3-1_Turnabout_Legacy.json</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2-4-2_Farewell,_My_Turnabout.json</t>
+          <t>10-3-2_Turnabout_Legacy.json</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2-4-4_Farewell,_My_Turnabout.json</t>
+          <t>10-4-1_A_Turnabout_Forsaken.json</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -588,97 +588,97 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>3-1-1_Turnabout_Memories.json</t>
+          <t>10-4-2_A_Turnabout_Forsaken.json</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>3-2-2_The_Stolen_Turnabout.json</t>
+          <t>10-5-1_Turnabout_for_the_Ages.json</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>3-2-4_The_Stolen_Turnabout.json</t>
+          <t>10-5-2_Turnabout_for_the_Ages.json</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>3-3-2_Recipe_for_Turnabout.json</t>
+          <t>2-1-1_The_Lost_Turnabout.json</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>3-3-4_Recipe_for_Turnabout.json</t>
+          <t>2-2-2_Reunion,_and_Turnabout.json</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>3-4-1_Turnabout_Beginnings.json</t>
+          <t>2-2-4_Reunion,_and_Turnabout.json</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>3-5-2_Bridge_to_the_Turnabout.json</t>
+          <t>2-3-2_Turnabout_Big_Top.json</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>3-5-4_Bridge_to_the_Turnabout.json</t>
+          <t>2-3-4_Turnabout_Big_Top.json</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>4-1-1_Turnabout_Trump.json</t>
+          <t>2-4-2_Farewell,_My_Turnabout.json</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>4-2-2_Turnabout_Corner.json</t>
+          <t>2-4-4_Farewell,_My_Turnabout.json</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -688,137 +688,137 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>4-2-4_Turnabout_Corner.json</t>
+          <t>3-1-1_Turnabout_Memories.json</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>4-3-2_Turnabout_Succession.json</t>
+          <t>3-2-2_The_Stolen_Turnabout.json</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>4-3-3_Turnabout_Succession.json</t>
+          <t>3-2-4_The_Stolen_Turnabout.json</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>4-4-2_Turnabout_Serenade.json</t>
+          <t>3-3-2_Recipe_for_Turnabout.json</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>5-1-1_Turnabout_Countdown.json</t>
+          <t>3-3-4_Recipe_for_Turnabout.json</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>5-2-2_The_Monstrous_Turnabout.json</t>
+          <t>3-4-1_Turnabout_Beginnings.json</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>5-2-4_The_Monstrous_Turnabout.json</t>
+          <t>3-5-2_Bridge_to_the_Turnabout.json</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>5-3-2_Turnabout_Academy.json</t>
+          <t>3-5-4_Bridge_to_the_Turnabout.json</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>5-3-4_Turnabout_Academy.json</t>
+          <t>4-1-1_Turnabout_Trump.json</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>5-4-1_The_Cosmic_Turnabout.json</t>
+          <t>4-2-2_Turnabout_Corner.json</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>5-4-3_The_Cosmic_Turnabout.json</t>
+          <t>4-2-4_Turnabout_Corner.json</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>5-5-2_Turnabout_for_Tomorrow.json</t>
+          <t>4-3-2_Turnabout_Succession.json</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>5-6-2_Turnabout_Reclaimed.json</t>
+          <t>4-3-3_Turnabout_Succession.json</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>5-6-4_Turnabout_Reclaimed.json</t>
+          <t>4-4-2_Turnabout_Serenade.json</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -828,27 +828,27 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>6-1-1_The_Foreign_Turnabout.json</t>
+          <t>5-1-1_Turnabout_Countdown.json</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>6-2-2_The_Magical_Turnabout.json</t>
+          <t>5-2-2_The_Monstrous_Turnabout.json</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>6-3-2_The_Rite_of_Turnabout.json</t>
+          <t>5-2-4_The_Monstrous_Turnabout.json</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -858,47 +858,47 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>6-3-4_The_Rite_of_Turnabout.json</t>
+          <t>5-3-2_Turnabout_Academy.json</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>6-4-1_Turnabout_Storyteller.json</t>
+          <t>5-3-4_Turnabout_Academy.json</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>6-5-2_Turnabout_Revolution.json</t>
+          <t>5-4-1_The_Cosmic_Turnabout.json</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>6-5-4_Turnabout_Revolution.json</t>
+          <t>5-4-3_The_Cosmic_Turnabout.json</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>6-6-2_Turnabout_Time_Traveler.json</t>
+          <t>5-5-2_Turnabout_for_Tomorrow.json</t>
         </is>
       </c>
       <c r="B47" t="n">
@@ -908,11 +908,341 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
+          <t>5-6-2_Turnabout_Reclaimed.json</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>5-6-4_Turnabout_Reclaimed.json</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>6-1-1_The_Foreign_Turnabout.json</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>6-2-2_The_Magical_Turnabout.json</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>6-3-2_The_Rite_of_Turnabout.json</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>6-3-4_The_Rite_of_Turnabout.json</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>6-4-1_Turnabout_Storyteller.json</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>6-5-2_Turnabout_Revolution.json</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>6-5-4_Turnabout_Revolution.json</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>6-6-2_Turnabout_Time_Traveler.json</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
           <t>6-6-4_Turnabout_Time_Traveler.json</t>
         </is>
       </c>
-      <c r="B48" t="n">
-        <v>3</v>
+      <c r="B58" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>7-1-1_The_Adventure_of_the_Great_Departure.json</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>7-3-1_The_Adventure_of_the_Runaway_Room.json</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>7-4-2_The_Adventure_of_the_Clouded_Kokoro.json</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>7-5-2_The_Adventure_of_the_Unspeakable_Story.json</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>8-1-1_The_Adventure_of_the_Blossoming_Attorney.json</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>8-2-2_The_Memoirs_of_the_Clouded_Kokoro.json</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>8-2-4_The_Memoirs_of_the_Clouded_Kokoro.json</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>8-3-2_The_Return_of_the_Great_Departed_Soul.json</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>8-3-4_The_Return_of_the_Great_Departed_Soul.json</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>8-4-2_Twisted_Karma_and_His_Last_Bow.json</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>8-5-1_The_Resolve_of_Ryunosuke_Naruhodo.json</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>8-5-3_The_Resolve_of_Ryunosuke_Naruhodo.json</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>9-1-1_Turnabout_Visitor.json</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>9-2-1_Turnabout_Airlines.json</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>9-2-2_Turnabout_Airlines.json</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>9-3-1_The_Kidnapped_Turnabout.json</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>9-3-2_The_Kidnapped_Turnabout.json</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>9-4-1_Turnabout_Reminiscence.json</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>9-4-2_Turnabout_Reminiscence.json</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>9-4-3_Turnabout_Reminiscence.json</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>9-5-1_Turnabout_Ablaze.json</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>9-5-2_Turnabout_Ablaze.json</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>9-5-3_Turnabout_Ablaze.json</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
